--- a/ToDo/credit.xlsx
+++ b/ToDo/credit.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="120">
   <si>
     <t>Credit365</t>
   </si>
@@ -381,6 +381,30 @@
   </si>
   <si>
     <t>https://rdr.salesdoubler.com.ua/in/offer/250?aid=35995</t>
+  </si>
+  <si>
+    <t>{{ value|round(2) }}</t>
+  </si>
+  <si>
+    <t>{{ value|round(1) }}</t>
+  </si>
+  <si>
+    <t>{{ value|round }}</t>
+  </si>
+  <si>
+    <t>{{ value|round(0,'ceil') }}</t>
+  </si>
+  <si>
+    <t>{{ value|round(0,'floor') }}</t>
+  </si>
+  <si>
+    <t>ТвоїГроші</t>
+  </si>
+  <si>
+    <t>http://tvoigroshi.com.ua</t>
+  </si>
+  <si>
+    <t>https://kf.ua</t>
   </si>
 </sst>
 </file>
@@ -558,10 +582,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -649,6 +672,7 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,7 +694,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
@@ -970,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1038,25 +1061,25 @@
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="52"/>
@@ -1067,1678 +1090,1710 @@
       <c r="R2" s="50"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>7</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>500</v>
       </c>
-      <c r="F3" s="4">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="3">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4">
         <v>3000</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>1.4E-2</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="27">
         <v>0.3</v>
       </c>
-      <c r="J3" s="20">
-        <v>30</v>
-      </c>
-      <c r="K3" s="20">
+      <c r="J3" s="19">
+        <v>30</v>
+      </c>
+      <c r="K3" s="19">
         <v>10000</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="42">
         <v>1.4E-2</v>
       </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="28">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="27">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="11" t="s">
+      <c r="Q3" s="44"/>
+      <c r="R3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>300</v>
       </c>
-      <c r="F4" s="4">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="3">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4">
         <v>3000</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>1.4E-2</v>
       </c>
-      <c r="I4" s="28">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20">
-        <v>30</v>
-      </c>
-      <c r="K4" s="20">
+      <c r="I4" s="27">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>30</v>
+      </c>
+      <c r="K4" s="19">
         <v>10000</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="42">
         <v>1.4E-2</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="28">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="s">
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="27">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="11" t="s">
+      <c r="Q4" s="44"/>
+      <c r="R4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>3</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>400</v>
       </c>
-      <c r="F5" s="22">
-        <v>30</v>
-      </c>
-      <c r="G5" s="21">
+      <c r="F5" s="21">
+        <v>30</v>
+      </c>
+      <c r="G5" s="20">
         <v>3000</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <v>0.02</v>
       </c>
-      <c r="I5" s="44">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20">
-        <v>30</v>
-      </c>
-      <c r="K5" s="20">
+      <c r="I5" s="43">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>30</v>
+      </c>
+      <c r="K5" s="19">
         <v>3000</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="42">
         <v>0.02</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="28">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="27">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11" t="s">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>400</v>
       </c>
-      <c r="F6" s="4">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="3">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4">
         <v>2000</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>1E-4</v>
       </c>
-      <c r="I6" s="28">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>30</v>
+      </c>
+      <c r="K6" s="6">
         <v>10000</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="42">
         <v>1.3332999999999999E-2</v>
       </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="28">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="s">
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="27">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11" t="s">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>7</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>500</v>
       </c>
-      <c r="F7" s="5">
-        <v>30</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="4">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4">
         <v>2500</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="I7" s="28">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
         <v>65</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>10000</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="42">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="28">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11" t="s">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>5</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>500</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>21</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>3000</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>1.9E-2</v>
       </c>
-      <c r="I8" s="28">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
         <v>21</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>15000</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="42">
         <v>1.9E-2</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="28">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="s">
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="27">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11" t="s">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>100</v>
       </c>
-      <c r="F9" s="5">
-        <v>30</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="4">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4">
         <v>1500</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>1.9E-2</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <v>0.5</v>
       </c>
-      <c r="J9" s="20">
-        <v>30</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9" s="19">
+        <v>30</v>
+      </c>
+      <c r="K9" s="6">
         <v>5000</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="42">
         <v>1.9E-2</v>
       </c>
-      <c r="M9" s="7">
-        <v>30</v>
-      </c>
-      <c r="N9" s="28">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6" t="s">
+      <c r="M9" s="6">
+        <v>30</v>
+      </c>
+      <c r="N9" s="27">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11" t="s">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>500</v>
       </c>
-      <c r="F10" s="5">
-        <v>30</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="4">
+        <v>30</v>
+      </c>
+      <c r="G10" s="4">
         <v>2000</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>1.9E-2</v>
       </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <v>30</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="I10" s="27">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>30</v>
+      </c>
+      <c r="K10" s="6">
         <v>7000</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="42">
         <v>1.9E-2</v>
       </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="28">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6" t="s">
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="27">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11" t="s">
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>7</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>300</v>
       </c>
-      <c r="F11" s="5">
-        <v>30</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="F11" s="4">
+        <v>30</v>
+      </c>
+      <c r="G11" s="20">
         <v>6000</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>0.02</v>
       </c>
-      <c r="I11" s="28">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
         <v>60</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>10000</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="42">
         <v>0.02</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="28">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6" t="s">
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="27">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11" t="s">
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>250</v>
       </c>
-      <c r="F12" s="5">
-        <v>30</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="4">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4">
         <v>2000</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="I12" s="28">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="I12" s="27">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>30</v>
+      </c>
+      <c r="K12" s="6">
         <v>7000</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="42">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="28">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6" t="s">
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="27">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11" t="s">
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>500</v>
       </c>
-      <c r="F13" s="5">
-        <v>30</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="4">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4">
         <v>2000</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="I13" s="28">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20">
-        <v>30</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <v>30</v>
+      </c>
+      <c r="K13" s="6">
         <v>10000</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="42">
         <v>1.2E-2</v>
       </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="28">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6" t="s">
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="27">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11" t="s">
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>100</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>35</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>3000</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="I14" s="28">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20">
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
         <v>35</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>30000</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="42">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="28">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6" t="s">
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="27">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11" t="s">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>50</v>
       </c>
-      <c r="F15" s="4">
-        <v>30</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="3">
+        <v>30</v>
+      </c>
+      <c r="G15" s="4">
         <v>3000</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="I15" s="28">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="I15" s="27">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>30</v>
+      </c>
+      <c r="K15" s="6">
         <v>10000</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="42">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="28">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6" t="s">
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="27">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11" t="s">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>5</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>500</v>
       </c>
-      <c r="F16" s="4">
-        <v>30</v>
-      </c>
-      <c r="G16" s="23">
+      <c r="F16" s="3">
+        <v>30</v>
+      </c>
+      <c r="G16" s="22">
         <v>1500</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I16" s="28">
-        <v>0</v>
-      </c>
-      <c r="J16" s="20">
-        <v>30</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="I16" s="27">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <v>30</v>
+      </c>
+      <c r="K16" s="6">
         <v>5000</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="42">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="28">
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="27">
         <v>0.05</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11" t="s">
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>1</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>200</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>21</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>3000</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>1.9E-2</v>
       </c>
-      <c r="I17" s="28">
-        <v>0</v>
-      </c>
-      <c r="J17" s="20">
+      <c r="I17" s="27">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
         <v>21</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>15000</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="42">
         <v>1.9E-2</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="28">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6" t="s">
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="27">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11" t="s">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>16</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>5</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>200</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>14</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>10000</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I18" s="28">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12">
+      <c r="I18" s="27">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
         <v>14</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>10000</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="41">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6" t="s">
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11" t="s">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>3</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>250</v>
       </c>
-      <c r="F19" s="4">
-        <v>30</v>
-      </c>
-      <c r="G19" s="23">
+      <c r="F19" s="3">
+        <v>30</v>
+      </c>
+      <c r="G19" s="22">
         <v>3000</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I19" s="28">
-        <v>0</v>
-      </c>
-      <c r="J19" s="20">
-        <v>30</v>
-      </c>
-      <c r="K19" s="7">
+      <c r="I19" s="27">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
+        <v>30</v>
+      </c>
+      <c r="K19" s="6">
         <v>10000</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="42">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="28">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6" t="s">
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="27">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11" t="s">
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>200</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>16</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>5000</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>0.02</v>
       </c>
-      <c r="I20" s="28">
-        <v>0</v>
-      </c>
-      <c r="J20" s="20">
+      <c r="I20" s="27">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19">
         <v>16</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <v>7000</v>
       </c>
-      <c r="L20" s="43">
+      <c r="L20" s="42">
         <v>0.02</v>
       </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="28">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6" t="s">
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="27">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11" t="s">
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>5</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>500</v>
       </c>
-      <c r="F21" s="4">
-        <v>30</v>
-      </c>
-      <c r="G21" s="25">
+      <c r="F21" s="3">
+        <v>30</v>
+      </c>
+      <c r="G21" s="24">
         <v>10000</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>1.6E-2</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="27">
         <v>0.5</v>
       </c>
-      <c r="J21" s="20">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="J21" s="19">
+        <v>30</v>
+      </c>
+      <c r="K21" s="6">
         <v>10000</v>
       </c>
-      <c r="L21" s="43">
+      <c r="L21" s="42">
         <v>1.6E-2</v>
       </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="28">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6" t="s">
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="27">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11" t="s">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>1</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>500</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>21</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>15000</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>1.9E-2</v>
       </c>
-      <c r="I22" s="28">
-        <v>0</v>
-      </c>
-      <c r="J22" s="20">
+      <c r="I22" s="27">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
         <v>21</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <v>15000</v>
       </c>
-      <c r="L22" s="43">
+      <c r="L22" s="42">
         <v>1.9E-2</v>
       </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="28">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6" t="s">
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="27">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11" t="s">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>21</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>200</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>15</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>7000</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>0.02</v>
       </c>
-      <c r="I23" s="28">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12">
+      <c r="I23" s="27">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
         <v>15</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>7000</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="41">
         <v>0.02</v>
       </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="28">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6" t="s">
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="27">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11" t="s">
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
+      <c r="A24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="5">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="5">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6">
+        <v>300</v>
+      </c>
+      <c r="F24" s="6">
+        <v>16</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I24" s="27">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>16</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L24" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="27">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2783,6 +2838,8 @@
     <hyperlink ref="C21" r:id="rId19"/>
     <hyperlink ref="C22" r:id="rId20"/>
     <hyperlink ref="C23" r:id="rId21"/>
+    <hyperlink ref="C24" r:id="rId22"/>
+    <hyperlink ref="C25" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2790,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2802,80 +2859,113 @@
     <col min="2" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <f>ROUND(Сума+ВсьогоКомісія+ВсьогоВідсотки1,0)</f>
-        <v>12100</v>
+        <v>1464</v>
       </c>
       <c r="C2">
         <f>ROUND(Сума+ВсьогоКомісія+ВсьогоВідсоткиN,0)</f>
-        <v>12100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>1464</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <f>ROUNDUP(Сума+ВсьогоКомісія+ВсьогоВідсотки1,0)</f>
-        <v>12100</v>
+        <v>1464</v>
       </c>
       <c r="C3">
         <f>ROUNDUP(Сума+ВсьогоКомісія+ВсьогоВідсоткиN,0)</f>
-        <v>12100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1464</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <f>ROUNDDOWN(Сума+ВсьогоКомісія+ВсьогоВідсотки1,0)</f>
-        <v>12100</v>
+        <v>1464</v>
       </c>
       <c r="C4">
         <f>ROUNDDOWN(Сума+ВсьогоКомісія+ВсьогоВідсоткиN,0)</f>
-        <v>12100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1464</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="1">
         <f>ROUND(Сума+ВсьогоКомісія+ВсьогоВідсотки1,2)</f>
-        <v>12100</v>
+        <v>1464</v>
       </c>
       <c r="C5">
         <f>ROUND(Сума+ВсьогоКомісія+ВсьогоВідсоткиN,2)</f>
-        <v>12100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1464</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <f>ROUND(Сума+ВсьогоКомісія+ВсьогоВідсотки1,1)</f>
-        <v>12100</v>
+        <v>1464</v>
       </c>
       <c r="C6">
         <f>ROUND(Сума+ВсьогоКомісія+ВсьогоВідсоткиN,1)</f>
-        <v>12100</v>
+        <v>1464</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2888,7 +2978,7 @@
   <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2899,25 +2989,25 @@
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>35</v>
+      <c r="C1" s="30" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="32">
-        <v>10000</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2925,15 +3015,15 @@
       <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="32">
-        <v>14</v>
+      <c r="C3" s="31">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="33" t="str">
+      <c r="C4" s="32" t="str">
         <f>HYPERLINK(VLOOKUP(C1,ТаблицяКомпанії2,3,0),"сайт компанії")</f>
         <v>сайт компанії</v>
       </c>
@@ -2944,103 +3034,103 @@
         <f>Комісія1+Комісія2*Сума</f>
         <v>0</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,8,0)</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f>IF(C1="Credit365",(Термін-7)*0.015%,0%)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,12,0)</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <f>IF(C1="CreditUp",-1,0)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,5,0)</f>
-        <v>200</v>
-      </c>
-      <c r="G7" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="G7" s="39"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,4,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,7,0)</f>
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="E9" t="s">
         <v>53</v>
       </c>
       <c r="F9">
         <f>Сума*(Термін+КоректСreditUp)*(Відсоток1-КоректCredit365)*(100%-Знижка)</f>
-        <v>2100</v>
-      </c>
-      <c r="G9" s="40"/>
+        <v>264</v>
+      </c>
+      <c r="G9" s="39"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,11,0)</f>
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="E10" t="s">
         <v>50</v>
       </c>
       <c r="F10">
         <f>VLOOKUP(Округлення,ТаблицяОкруглення,2,0)</f>
-        <v>12100</v>
-      </c>
-      <c r="G10" s="40" t="str">
+        <v>1464</v>
+      </c>
+      <c r="G10" s="39" t="str">
         <f>IF(OR(Термін&lt;МінДнів,Термін&gt;МаксДнів1,Сума&lt;МінСума,Сума&gt;МаксСума1),"недоступно","")</f>
         <v/>
       </c>
@@ -3050,32 +3140,32 @@
       <c r="B11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,6,0)</f>
-        <v>14</v>
-      </c>
-      <c r="G11" s="40"/>
+        <v>16</v>
+      </c>
+      <c r="G11" s="39"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,10,0)</f>
-        <v>14</v>
-      </c>
-      <c r="E12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,13,0)</f>
         <v>0</v>
       </c>
@@ -3084,44 +3174,44 @@
       </c>
       <c r="F13">
         <f>Сума*(Термін+КоректСreditUp)*(ВідсотокN-КоректCredit365)</f>
-        <v>2100</v>
-      </c>
-      <c r="G13" s="40"/>
+        <v>264</v>
+      </c>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1">
       <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,14,0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f>VLOOKUP(Округлення,ТаблицяОкруглення,3,0)</f>
-        <v>12100</v>
-      </c>
-      <c r="G14" s="41" t="str">
+        <v>1464</v>
+      </c>
+      <c r="G14" s="40" t="str">
         <f>IF(OR(Термін&lt;МінДнів,Термін&gt;МаксДнівN,Сума&lt;МінСума,Сума&gt;МаксСумаN),"недоступно","")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,9,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="30" t="str">
+      <c r="C16" s="29" t="str">
         <f>VLOOKUP(C1,ТаблицяКомпанії2,15,0)</f>
         <v>*.00</v>
       </c>
@@ -3162,10 +3252,10 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E1">
@@ -3215,10 +3305,10 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E2">
@@ -3268,10 +3358,10 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E3">
@@ -3321,10 +3411,10 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E4">
@@ -3374,10 +3464,10 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E5">
@@ -3427,10 +3517,10 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E6">
@@ -3480,10 +3570,10 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E7">
@@ -3533,10 +3623,10 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E8">
@@ -3586,10 +3676,10 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E9">
@@ -3639,10 +3729,10 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E10">
@@ -3692,10 +3782,10 @@
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E11">
@@ -3745,10 +3835,10 @@
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E12">
@@ -3798,10 +3888,10 @@
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="53" t="s">
+      <c r="C13" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E13">
@@ -3851,10 +3941,10 @@
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E14">
@@ -3904,10 +3994,10 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E15">
@@ -3957,10 +4047,10 @@
       <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E16">
@@ -4010,10 +4100,10 @@
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E17">
@@ -4063,10 +4153,10 @@
       <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E18">
@@ -4116,10 +4206,10 @@
       <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E19">
@@ -4169,10 +4259,10 @@
       <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E20">
@@ -4222,10 +4312,10 @@
       <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E21">
